--- a/PostGISProject/graphs.xlsx
+++ b/PostGISProject/graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjanaroy/Desktop/GIS323_github/sanjana-roy.github.io/PostGISProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA818A16-F741-6441-9524-E102CF6B547D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626B50F3-FE2C-F34C-AF6A-2D3B599F28FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="24940" windowHeight="16500" xr2:uid="{1B97D5C3-916E-EF40-B978-99D527537635}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="24940" windowHeight="16460" xr2:uid="{1B97D5C3-916E-EF40-B978-99D527537635}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1804,7 +1804,7 @@
   <dimension ref="B1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
